--- a/subjects/resources/2/andan/pok_var.xlsx
+++ b/subjects/resources/2/andan/pok_var.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\2 курс\анализ данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,10 +92,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -456,7 +456,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +743,7 @@
   <dimension ref="A1:CW26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:J26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
